--- a/CRM-DB files/Dicionário de dados (CRM).xlsx
+++ b/CRM-DB files/Dicionário de dados (CRM).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\2024A\Banco Dados II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED53C0B3-6D91-4879-BF72-71EFEC3E7A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BE5DFF-4329-41C3-BFFB-D1BE451D1D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="149">
   <si>
     <t>ATRIBUTOS</t>
   </si>
@@ -411,6 +411,36 @@
   </si>
   <si>
     <t>Código de identificador da reserva</t>
+  </si>
+  <si>
+    <t>movimento_financeiro</t>
+  </si>
+  <si>
+    <t>id_movto</t>
+  </si>
+  <si>
+    <t>Código de identificador do movimento financeiro</t>
+  </si>
+  <si>
+    <t>descricao_movto</t>
+  </si>
+  <si>
+    <t>0 - 5</t>
+  </si>
+  <si>
+    <t>Descrição sobre o movimento financeiro</t>
+  </si>
+  <si>
+    <t>data_movto</t>
+  </si>
+  <si>
+    <t>Data do movimento financeiro</t>
+  </si>
+  <si>
+    <t>hora_movto</t>
+  </si>
+  <si>
+    <t>Horário do movimento financeiro</t>
   </si>
   <si>
     <t>INDÍCES</t>
@@ -947,19 +977,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1044,11 +1061,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1121,229 +1147,260 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1698,22 +1755,22 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1734,10 +1791,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1756,11 +1813,11 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1778,10 +1835,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1800,14 +1857,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="58" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1820,10 +1877,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1840,10 +1897,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1870,22 +1927,22 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1906,10 +1963,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1928,10 +1985,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1948,10 +2005,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1968,10 +2025,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1988,10 +2045,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2008,11 +2065,11 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="65" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2028,10 +2085,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
@@ -2048,10 +2105,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -2068,36 +2125,36 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="86"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="90"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2114,10 +2171,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
@@ -2136,10 +2193,10 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2158,14 +2215,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="58" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2173,15 +2230,15 @@
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2198,10 +2255,10 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="55" t="s">
         <v>33</v>
       </c>
@@ -2218,10 +2275,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2248,240 +2305,240 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="91"/>
+      <c r="C33" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="95" t="s">
+      <c r="H33" s="77" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="36" t="s">
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="74"/>
+      <c r="H34" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="104" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="41"/>
-      <c r="G35" s="38"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="108"/>
+      <c r="C36" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="E36" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="83"/>
+      <c r="C37" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="74"/>
       <c r="H37" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="44"/>
+      <c r="E38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
       <c r="H38" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="83"/>
+      <c r="C39" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="38"/>
+      <c r="E40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="43"/>
       <c r="G40" s="39"/>
       <c r="H40" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="83"/>
+      <c r="C41" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="E41" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="11" t="s">
+      <c r="E42" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="41"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="67" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="83"/>
+      <c r="C43" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="11" t="s">
+      <c r="G43" s="61"/>
+      <c r="H43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2496,26 +2553,26 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2532,10 +2589,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
@@ -2554,10 +2611,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
@@ -2583,7 +2640,7 @@
       <c r="C49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="64" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="19" t="s">
@@ -2616,10 +2673,10 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2636,10 +2693,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
@@ -2666,26 +2723,26 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="75"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="69"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="95" t="s">
+      <c r="D55" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -2697,15 +2754,15 @@
       <c r="G55" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="95" t="s">
+      <c r="H55" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="8" t="s">
         <v>9</v>
       </c>
@@ -2775,7 +2832,7 @@
       <c r="C59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="63" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -2798,22 +2855,22 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="67"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="69"/>
+      <c r="B62" s="91"/>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
@@ -2834,10 +2891,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="81"/>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2876,10 +2933,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="81"/>
       <c r="C65" s="3" t="s">
         <v>57</v>
       </c>
@@ -2926,22 +2983,22 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="75"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="103"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="69"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2962,10 +3019,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="59"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
@@ -2984,10 +3041,10 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="70"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
@@ -3004,10 +3061,10 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="96"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="7" t="s">
         <v>33</v>
       </c>
@@ -3024,10 +3081,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="84"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
@@ -3044,10 +3101,10 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="60" t="s">
+      <c r="A74" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="61"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="28" t="s">
         <v>57</v>
       </c>
@@ -3074,26 +3131,26 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="75"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="103"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="69"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="95" t="s">
+      <c r="D77" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -3105,15 +3162,15 @@
       <c r="G77" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="95" t="s">
+      <c r="H77" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="59"/>
+      <c r="B78" s="81"/>
       <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
@@ -3132,10 +3189,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="59"/>
+      <c r="B79" s="81"/>
       <c r="C79" s="8" t="s">
         <v>9</v>
       </c>
@@ -3146,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="F79" s="49"/>
-      <c r="G79" s="98" t="s">
+      <c r="G79" s="61" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -3154,10 +3211,10 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="79"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="8" t="s">
         <v>9</v>
       </c>
@@ -3167,8 +3224,8 @@
       <c r="E80" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="97"/>
-      <c r="G80" s="99" t="s">
+      <c r="F80" s="60"/>
+      <c r="G80" s="62" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="7" t="s">
@@ -3176,10 +3233,10 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="91" t="s">
+      <c r="A81" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="91"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="8" t="s">
         <v>9</v>
       </c>
@@ -3198,8 +3255,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="82"/>
-      <c r="B82" s="82"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="109"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3207,119 +3264,237 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="103"/>
+    </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="81"/>
-    </row>
-    <row r="85" spans="1:8" ht="18" customHeight="1">
-      <c r="A85" s="68" t="s">
+      <c r="B84" s="91"/>
+      <c r="C84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="40" t="s">
+      <c r="B85" s="81"/>
+      <c r="C85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="48"/>
+      <c r="H85" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="40" t="s">
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="B86" s="81"/>
+      <c r="C86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="E86" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="49"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G85" s="31"/>
-      <c r="H85" s="32"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="58" t="s">
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36" t="s">
+      <c r="B87" s="97"/>
+      <c r="C87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="60"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="93"/>
+      <c r="C88" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8"/>
+    <row r="90" spans="1:8">
+      <c r="A90" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="88"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="89"/>
+    </row>
+    <row r="91" spans="1:8" ht="18" customHeight="1">
+      <c r="A91" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="91"/>
+      <c r="C91" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="31"/>
+      <c r="H91" s="32"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A92" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="81"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="29"/>
-      <c r="H86" s="30"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37" t="s">
+      <c r="E92" s="45"/>
+      <c r="F92" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A93" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="81"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="51"/>
-      <c r="F87" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
-      <c r="A88" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="112"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
-      <c r="A89" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53" t="s">
+      <c r="E94" s="54"/>
+      <c r="F94" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="33"/>
+      <c r="H94" s="34"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1">
+      <c r="A95" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="112"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="28" t="s">
-        <v>138</v>
+      <c r="E95" s="54"/>
+      <c r="F95" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A89:B89"/>
+  <mergeCells count="76">
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
@@ -3328,17 +3503,21 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A54:H54"/>
@@ -3353,6 +3532,8 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>

--- a/CRM-DB files/Dicionário de dados (CRM).xlsx
+++ b/CRM-DB files/Dicionário de dados (CRM).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\2024A\Banco Dados II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BE5DFF-4329-41C3-BFFB-D1BE451D1D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8C58E8-0E5A-4D95-BEEA-02CF1AC43F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="151">
   <si>
     <t>ATRIBUTOS</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>Horário do movimento financeiro</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>Usuário que realizou a movimentação financeira</t>
   </si>
   <si>
     <t>INDÍCES</t>
@@ -1074,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1285,27 +1291,114 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1315,92 +1408,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1758,19 +1767,19 @@
       <c r="A3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1791,10 +1800,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1835,10 +1844,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1857,10 +1866,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1877,10 +1886,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1897,10 +1906,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1927,22 +1936,22 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1963,10 +1972,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1985,10 +1994,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2005,10 +2014,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
@@ -2025,10 +2034,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2045,10 +2054,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2065,10 +2074,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="65" t="s">
         <v>33</v>
       </c>
@@ -2085,10 +2094,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="93"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
@@ -2105,10 +2114,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="82"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -2135,16 +2144,16 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="105" t="s">
@@ -2171,10 +2180,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
@@ -2193,10 +2202,10 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2215,10 +2224,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="81"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
@@ -2235,10 +2244,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2255,10 +2264,10 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="86"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="55" t="s">
         <v>33</v>
       </c>
@@ -2275,10 +2284,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="83"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2305,22 +2314,22 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="104"/>
-      <c r="H32" s="103"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="59" t="s">
         <v>2</v>
       </c>
@@ -2341,10 +2350,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="9" t="s">
         <v>9</v>
       </c>
@@ -2363,10 +2372,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="22" t="s">
         <v>33</v>
       </c>
@@ -2403,10 +2412,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="83"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="69" t="s">
         <v>33</v>
       </c>
@@ -2423,10 +2432,10 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="83"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="70" t="s">
         <v>33</v>
       </c>
@@ -2443,10 +2452,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="83"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="70" t="s">
         <v>27</v>
       </c>
@@ -2463,10 +2472,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="70" t="s">
         <v>33</v>
       </c>
@@ -2483,10 +2492,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="83"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="70" t="s">
         <v>33</v>
       </c>
@@ -2503,10 +2512,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="83"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="70" t="s">
         <v>33</v>
       </c>
@@ -2523,10 +2532,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="66" t="s">
         <v>33</v>
       </c>
@@ -2553,22 +2562,22 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="91"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
@@ -2589,10 +2598,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="81"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
@@ -2611,10 +2620,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="81"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
@@ -2673,10 +2682,10 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="81"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2693,10 +2702,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="81"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
@@ -2723,22 +2732,22 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A54" s="100" t="s">
+      <c r="A54" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="103"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="93"/>
     </row>
     <row r="55" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="91"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
@@ -2759,10 +2768,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="81"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="8" t="s">
         <v>9</v>
       </c>
@@ -2858,19 +2867,19 @@
       <c r="A61" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="89"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="98"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="91"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
@@ -2891,10 +2900,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="81"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2933,10 +2942,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="80" t="s">
+      <c r="A65" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="81"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="3" t="s">
         <v>57</v>
       </c>
@@ -2983,22 +2992,22 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="101"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="93"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="91"/>
+      <c r="B69" s="87"/>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
@@ -3019,10 +3028,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="80" t="s">
+      <c r="A70" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="81"/>
+      <c r="B70" s="89"/>
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
@@ -3041,10 +3050,10 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="92"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
@@ -3061,10 +3070,10 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="7" t="s">
         <v>33</v>
       </c>
@@ -3081,10 +3090,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="112"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
@@ -3101,10 +3110,10 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="83"/>
+      <c r="B74" s="85"/>
       <c r="C74" s="28" t="s">
         <v>57</v>
       </c>
@@ -3131,22 +3140,22 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A76" s="100" t="s">
+      <c r="A76" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="103"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="93"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="91"/>
+      <c r="B77" s="87"/>
       <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3167,10 +3176,10 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="80" t="s">
+      <c r="A78" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="81"/>
+      <c r="B78" s="89"/>
       <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
@@ -3189,10 +3198,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="81"/>
+      <c r="B79" s="89"/>
       <c r="C79" s="8" t="s">
         <v>9</v>
       </c>
@@ -3211,10 +3220,10 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="94" t="s">
+      <c r="A80" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="97"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="8" t="s">
         <v>9</v>
       </c>
@@ -3233,10 +3242,10 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="93"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="8" t="s">
         <v>9</v>
       </c>
@@ -3255,8 +3264,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="109"/>
-      <c r="B82" s="109"/>
+      <c r="A82" s="103"/>
+      <c r="B82" s="103"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3265,22 +3274,22 @@
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="103"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="93"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="91"/>
+      <c r="B84" s="87"/>
       <c r="C84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3301,10 +3310,10 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="80" t="s">
+      <c r="A85" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="81"/>
+      <c r="B85" s="89"/>
       <c r="C85" s="8" t="s">
         <v>9</v>
       </c>
@@ -3323,10 +3332,10 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="80" t="s">
+      <c r="A86" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="81"/>
+      <c r="B86" s="89"/>
       <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
@@ -3343,10 +3352,10 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="94" t="s">
+      <c r="A87" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="97"/>
+      <c r="B87" s="102"/>
       <c r="C87" s="8" t="s">
         <v>27</v>
       </c>
@@ -3363,10 +3372,10 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="93"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="8" t="s">
         <v>93</v>
       </c>
@@ -3382,92 +3391,98 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:8"/>
+    <row r="89" spans="1:8">
+      <c r="A89" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="88"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="89"/>
-    </row>
-    <row r="91" spans="1:8" ht="18" customHeight="1">
-      <c r="A91" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="91"/>
-      <c r="C91" s="40" t="s">
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="98"/>
+    </row>
+    <row r="92" spans="1:8" ht="18" customHeight="1">
+      <c r="A92" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="B92" s="87"/>
+      <c r="C92" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="D92" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="32"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A92" s="80" t="s">
+      <c r="E92" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="81"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36" t="s">
+      <c r="F92" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="32"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A93" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="89"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A93" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="51"/>
-      <c r="F93" s="7" t="s">
+      <c r="E93" s="45"/>
+      <c r="F93" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="30"/>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="84" t="s">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A94" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="53" t="s">
+      <c r="B94" s="89"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="54"/>
-      <c r="F94" s="28" t="s">
+      <c r="E94" s="51"/>
+      <c r="F94" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G94" s="33"/>
-      <c r="H94" s="34"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1">
-      <c r="A95" s="84" t="s">
+      <c r="G94" s="29"/>
+      <c r="H94" s="30"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="112"/>
+      <c r="B95" s="79"/>
       <c r="C95" s="52"/>
       <c r="D95" s="53" t="s">
         <v>12</v>
@@ -3476,48 +3491,46 @@
       <c r="F95" s="28" t="s">
         <v>148</v>
       </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="34"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1">
+      <c r="A96" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="79"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="28" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
+  <mergeCells count="77">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A54:H54"/>
@@ -3534,27 +3547,46 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/CRM-DB files/Dicionário de dados (CRM).xlsx
+++ b/CRM-DB files/Dicionário de dados (CRM).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\2024A\Banco Dados II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isis.62123\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8C58E8-0E5A-4D95-BEEA-02CF1AC43F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB3639-8237-474F-BCE4-36262185B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="148">
   <si>
     <t>ATRIBUTOS</t>
   </si>
@@ -416,39 +414,9 @@
     <t>movimento_financeiro</t>
   </si>
   <si>
-    <t>id_movto</t>
-  </si>
-  <si>
-    <t>Código de identificador do movimento financeiro</t>
-  </si>
-  <si>
-    <t>descricao_movto</t>
-  </si>
-  <si>
-    <t>0 - 5</t>
-  </si>
-  <si>
-    <t>Descrição sobre o movimento financeiro</t>
-  </si>
-  <si>
-    <t>data_movto</t>
-  </si>
-  <si>
-    <t>Data do movimento financeiro</t>
-  </si>
-  <si>
-    <t>hora_movto</t>
-  </si>
-  <si>
-    <t>Horário do movimento financeiro</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
-    <t>Usuário que realizou a movimentação financeira</t>
-  </si>
-  <si>
     <t>INDÍCES</t>
   </si>
   <si>
@@ -489,13 +457,34 @@
   </si>
   <si>
     <t>Avaliacao(comentario)</t>
+  </si>
+  <si>
+    <t>tabela_banco</t>
+  </si>
+  <si>
+    <t>acao</t>
+  </si>
+  <si>
+    <t>Tabela do banco que ocorreu o movimento</t>
+  </si>
+  <si>
+    <t>Ação realizada</t>
+  </si>
+  <si>
+    <t>Data da movimentação</t>
+  </si>
+  <si>
+    <t>Horário da movimentação</t>
+  </si>
+  <si>
+    <t>Usuário que realizou a movimentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +520,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1080,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1291,17 +1286,116 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,105 +1406,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,7 +1430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1732,18 +1728,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" customWidth="1"/>
     <col min="8" max="9" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1753,7 +1749,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1763,23 +1759,23 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="86" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1799,11 +1795,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
@@ -1843,11 +1839,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="110" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1865,11 +1861,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,11 +1881,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="112" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1905,11 +1901,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="112" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="113"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1935,23 +1931,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="116" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="86" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1971,11 +1967,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1993,11 +1989,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2013,11 +2009,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="88" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
@@ -2033,11 +2029,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="101" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2053,11 +2049,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2073,11 +2069,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="101" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="109"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="65" t="s">
         <v>33</v>
       </c>
@@ -2093,11 +2089,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="80" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
@@ -2113,11 +2109,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="6"/>
@@ -2143,23 +2139,23 @@
       <c r="G22" s="46"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="82" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="105" t="s">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="106"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
@@ -2179,11 +2175,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="88" t="s">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
@@ -2201,11 +2197,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="88" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2223,11 +2219,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="88" t="s">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="89"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
@@ -2243,11 +2239,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="114"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2263,11 +2259,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="81" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="115"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="55" t="s">
         <v>33</v>
       </c>
@@ -2283,11 +2279,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2313,23 +2309,23 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="90" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="93"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="86" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="104"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="87"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="59" t="s">
         <v>2</v>
       </c>
@@ -2349,11 +2345,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="101" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="109"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="9" t="s">
         <v>9</v>
       </c>
@@ -2371,11 +2367,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="81" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="22" t="s">
         <v>33</v>
       </c>
@@ -2391,11 +2387,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="107" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="108"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="66" t="s">
         <v>33</v>
       </c>
@@ -2411,11 +2407,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="81" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="69" t="s">
         <v>33</v>
       </c>
@@ -2431,11 +2427,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="81" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="70" t="s">
         <v>33</v>
       </c>
@@ -2451,11 +2447,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A39" s="81" t="s">
+    <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="70" t="s">
         <v>27</v>
       </c>
@@ -2471,11 +2467,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A40" s="81" t="s">
+    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="70" t="s">
         <v>33</v>
       </c>
@@ -2491,11 +2487,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A41" s="81" t="s">
+    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="70" t="s">
         <v>33</v>
       </c>
@@ -2511,11 +2507,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A42" s="81" t="s">
+    <row r="42" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="85"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="70" t="s">
         <v>33</v>
       </c>
@@ -2531,11 +2527,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A43" s="81" t="s">
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="85"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="66" t="s">
         <v>33</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.45" customHeight="1">
+    <row r="44" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2561,23 +2557,23 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A45" s="90" t="s">
+    <row r="45" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="93"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A46" s="86" t="s">
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
@@ -2597,11 +2593,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A47" s="88" t="s">
+    <row r="47" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="89"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
@@ -2619,11 +2615,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A48" s="88" t="s">
+    <row r="48" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="89"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
@@ -2641,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>88</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>90</v>
       </c>
@@ -2681,11 +2677,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="88" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="89"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2701,11 +2697,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="88" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="89"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
@@ -2721,7 +2717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2731,23 +2727,23 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A54" s="90" t="s">
+    <row r="54" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="93"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A55" s="86" t="s">
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="87"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
@@ -2767,11 +2763,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A56" s="88" t="s">
+    <row r="56" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="89"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="8" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.45" customHeight="1">
+    <row r="57" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>31</v>
       </c>
@@ -2811,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>86</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>101</v>
       </c>
@@ -2853,7 +2849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2863,23 +2859,23 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="96" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="98"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="86" t="s">
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="90"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="87"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
@@ -2899,11 +2895,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="88" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="89"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>106</v>
       </c>
@@ -2941,11 +2937,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="88" t="s">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="89"/>
+      <c r="B65" s="82"/>
       <c r="C65" s="3" t="s">
         <v>57</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>62</v>
       </c>
@@ -2981,7 +2977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2991,23 +2987,23 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="99" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="86" t="s">
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="87"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
@@ -3027,11 +3023,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="88" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="89"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
@@ -3049,11 +3045,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="88" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="100"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
@@ -3069,11 +3065,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="94" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="95"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="7" t="s">
         <v>33</v>
       </c>
@@ -3089,11 +3085,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="78" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="79"/>
+      <c r="B73" s="113"/>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
@@ -3109,11 +3105,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="81" t="s">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="85"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="28" t="s">
         <v>57</v>
       </c>
@@ -3129,7 +3125,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3139,23 +3135,23 @@
       <c r="G75" s="46"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A76" s="90" t="s">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="93"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="86" t="s">
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="104"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="87"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3175,11 +3171,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="88" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="89"/>
+      <c r="B78" s="82"/>
       <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
@@ -3197,11 +3193,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="88" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="89"/>
+      <c r="B79" s="82"/>
       <c r="C79" s="8" t="s">
         <v>9</v>
       </c>
@@ -3219,11 +3215,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="101" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="102"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="8" t="s">
         <v>9</v>
       </c>
@@ -3241,11 +3237,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="80" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="80"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="8" t="s">
         <v>9</v>
       </c>
@@ -3263,9 +3259,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="103"/>
-      <c r="B82" s="103"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3273,23 +3269,23 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="90" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="93"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="86" t="s">
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="104"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="87"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3309,38 +3305,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="8" t="s">
-        <v>9</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="82"/>
+      <c r="C85" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="48" t="s">
-        <v>12</v>
-      </c>
+      <c r="F85" s="48"/>
       <c r="G85" s="48"/>
       <c r="H85" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="89"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="82"/>
       <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>11</v>
@@ -3348,14 +3342,14 @@
       <c r="F86" s="49"/>
       <c r="G86" s="61"/>
       <c r="H86" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="102"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="98"/>
       <c r="C87" s="8" t="s">
         <v>27</v>
       </c>
@@ -3368,14 +3362,14 @@
       <c r="F87" s="60"/>
       <c r="G87" s="62"/>
       <c r="H87" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="80"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="94"/>
       <c r="C88" s="8" t="s">
         <v>93</v>
       </c>
@@ -3388,14 +3382,14 @@
       <c r="F88" s="48"/>
       <c r="G88" s="48"/>
       <c r="H88" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89" s="80"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="94"/>
       <c r="C89" s="7" t="s">
         <v>33</v>
       </c>
@@ -3407,109 +3401,170 @@
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="48"/>
-      <c r="H89" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="F90" s="117"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="98"/>
-    </row>
-    <row r="92" spans="1:8" ht="18" customHeight="1">
-      <c r="A92" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="87"/>
+      <c r="H89" s="118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="78"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="90"/>
+    </row>
+    <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="92"/>
       <c r="C92" s="40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E92" s="50" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="32"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A93" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="89"/>
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="82"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="45"/>
       <c r="F93" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="30"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A94" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="89"/>
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="82"/>
       <c r="C94" s="37"/>
       <c r="D94" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="51"/>
       <c r="F94" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="30"/>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="79"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="113"/>
       <c r="C95" s="52"/>
       <c r="D95" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="54"/>
       <c r="F95" s="28" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="34"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
-      <c r="A96" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="79"/>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="113"/>
       <c r="C96" s="52"/>
       <c r="D96" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="54"/>
       <c r="F96" s="28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A30:B30"/>
@@ -3526,67 +3581,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A91:H91"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
